--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_291.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_291.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1152482269503546</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_13</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09973045822102425</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj', 'F:maj', 'F:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:01:15.580000', '0:01:26.060000'), ('0:01:16.840000', '0:01:30.320000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:07.870000', '0:00:14.660000'), ('0:00:17.450000', '0:00:22.860000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_25</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1099450274862569</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_51</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_0</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.125</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb']]</t>
+          <t>[['G', 'C', 'A:min'], ['F', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(18.8, 22.56)]</t>
+          <t>[['Ab', 'Db', 'Bb:min'], ['Gb', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(50.13, 55.78)]</t>
+          <t>[('0:00:27.800657', '0:00:34.197755'), ('0:00:25.687641', '0:00:32.084739')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:35.765102', '0:00:41.755850'), ('0:00:03.810375', '0:00:07.314387')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06346153846153846</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>[['A#:7', 'D#', 'C:min'], ['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(43.88, 52.16)]</t>
+          <t>[['A:7', 'D:maj', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(7.4, 18.96)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:33.680000', '0:00:36'), ('0:00:11.820000', '0:00:16.400000'), ('0:00:21.940000', '0:00:25.360000'), ('0:00:38.200000', '0:00:39.980000'), ('0:00:07.220000', '0:00:10.760000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:36.740000', '0:00:42.320000'), ('0:00:13.420000', '0:00:19.500000'), ('0:01:14.800000', '0:01:21.060000'), ('0:00:35.140000', '0:00:39.900000'), ('0:00:25.480000', '0:00:32.760000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1596638655462185</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['A', 'D', 'G'], ['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86)]</t>
+          <t>[('0:00:42.394399', '0:00:50.173083'), ('0:00:11.465419', '0:00:19.151224')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:03:07.440000', '0:03:10.020000'), ('0:00:02.560000', '0:00:21.440000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.150268336314848</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2363636363636364</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(32.2, 36.2)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(29.5, 31.64)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:02', '0:00:04.320000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1108622620380739</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(51.85331, 57.05458)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.98079, 5.421882)]</t>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_57</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_35</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.82, 17.98), (23.16, 26.04), (18.66, 20.14)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(12.72, 17.02), (22.36, 25.24), (17.76, 19.18)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:59.900000', '0:01:09.840000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_44</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06363636363636364</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min7', 'C:min7', 'F:7'], ['Bb:maj6', 'Bb:maj6', 'G:min7']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:min7', 'Ab:7'], ['Db:maj6', 'Db:maj6', 'Db:maj6']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(4.8, 6.27), (3.82, 5.3)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(11.34, 15.2), (166.3, 177.94)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:08.980000', '0:01:27.200000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.606060606060606</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(138.8, 144.46)]</t>
+          <t>[['G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:12.272131', '0:01:22.732721')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.32, 10.96)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(27.0, 49.86)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1553829078801332</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5', 'D']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.421247, 5.746892)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(34.743424, 38.330907)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2243589743589743</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'A/3', 'E/5'], ['A/3', 'E/5', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C', 'C', 'G'], ['C', 'G', 'C']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.404, 17.043), (14.168, 18.573)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.0, 10.234761), (1.620158, 13.055986)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2342342342342342</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(47.14, 59.7)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(11.12916, 21.12535)]</t>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_59</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1949626865671642</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(224.58, 232.16)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(6.37, 8.66)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(50.046698, 55.352457)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(19.616133, 25.815861)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_155</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(35.62, 41.54), (1.46, 9.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(38.2, 41.06), (251.5, 255.38)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
